--- a/files/plantillas/Museos_Plantilla.xlsx
+++ b/files/plantillas/Museos_Plantilla.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\TFG\files\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826212A1-2180-48F8-A060-662E12FC87DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7D373D-34AA-461B-846B-44686672164C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{AB2DC56D-0D9B-40A5-84D5-DF4C76C34592}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="14400" windowHeight="7360" xr2:uid="{AB2DC56D-0D9B-40A5-84D5-DF4C76C34592}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,12 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>nombre</t>
   </si>
@@ -433,15 +427,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAEB513-3D41-4570-8F4C-F89EF1B2E22C}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,9 +469,6 @@
       </c>
       <c r="L1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/files/plantillas/Museos_Plantilla.xlsx
+++ b/files/plantillas/Museos_Plantilla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\TFG\files\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7D373D-34AA-461B-846B-44686672164C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B480F7FA-7D15-4DA2-84F4-7B313B16702C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="14400" windowHeight="7360" xr2:uid="{AB2DC56D-0D9B-40A5-84D5-DF4C76C34592}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AB2DC56D-0D9B-40A5-84D5-DF4C76C34592}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,49 +33,76 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>nombre</t>
-  </si>
-  <si>
-    <t>descripcion</t>
-  </si>
-  <si>
-    <t>desc_sitio</t>
-  </si>
-  <si>
-    <t>horario</t>
-  </si>
-  <si>
-    <t>transporte</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>direccion</t>
-  </si>
-  <si>
-    <t>codpostal</t>
-  </si>
-  <si>
-    <t>latitud</t>
-  </si>
-  <si>
-    <t>longitud</t>
-  </si>
-  <si>
-    <t>telefono</t>
-  </si>
-  <si>
-    <t>email</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Descripción del lugar</t>
+  </si>
+  <si>
+    <t>Horario</t>
+  </si>
+  <si>
+    <t>Transporte</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Dirección</t>
+  </si>
+  <si>
+    <t>Código Postal</t>
+  </si>
+  <si>
+    <t>Latitud</t>
+  </si>
+  <si>
+    <t>Longitud</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t>Categorías</t>
+  </si>
+  <si>
+    <t>Museo</t>
+  </si>
+  <si>
+    <t>Texto libre</t>
+  </si>
+  <si>
+    <t>Metro: Antón Martín (línea 1)</t>
+  </si>
+  <si>
+    <t>http://www.madrid.es</t>
+  </si>
+  <si>
+    <t>Calle Cervantes 11</t>
+  </si>
+  <si>
+    <t>987 009 311</t>
+  </si>
+  <si>
+    <t>info@fundacionamyc.org</t>
+  </si>
+  <si>
+    <t>/contenido/entidadesYorganismos/Museos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,13 +116,27 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -107,14 +148,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -427,13 +481,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAEB513-3D41-4570-8F4C-F89EF1B2E22C}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="12.90625" customWidth="1"/>
+    <col min="3" max="3" width="18.90625" customWidth="1"/>
+    <col min="5" max="5" width="26.6328125" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="12" max="12" width="25.26953125" customWidth="1"/>
+    <col min="13" max="13" width="37.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,13 +532,60 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2">
+        <v>20018</v>
+      </c>
+      <c r="I2" s="4">
+        <v>4040595710517700</v>
+      </c>
+      <c r="J2" s="2">
+        <v>-3725725718176110</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{30F9DCDA-555A-4810-BD55-6ACDA5C4AFFA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>